--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
+  <s:workbookPr codeName="ThisWorkbook"/>
   <s:bookViews>
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
     <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <s:sheet name="Hoja 7" sheetId="2" r:id="rId2"/>
+    <s:sheet name="Hoja 1" sheetId="3" r:id="rId3"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Planta</t>
   </si>
@@ -42,6 +43,15 @@
   </si>
   <si>
     <t>Jalisco</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -492,4 +502,79 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="n">
+        <v>789</v>
+      </c>
+      <c r="B4" t="n">
+        <v>123</v>
+      </c>
+      <c r="C4" t="n">
+        <v>456</v>
+      </c>
+      <c r="D4" t="n">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>